--- a/test_videos_with_labels/done/GX010107_d_labels.xlsx
+++ b/test_videos_with_labels/done/GX010107_d_labels.xlsx
@@ -5,13 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\Programmierung\Master\Machine Vision\Computer-Robot_Vision_repo\test_video_results_augmented_mobile\tests\GX010107_d\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\Programmierung\Master\Machine Vision\Computer-Robot_Vision_repo\test_videos_with_labels\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D997139-B905-4E3D-ABC2-E0E05A89A0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7DD7D8-73A5-4EFE-811C-228E3715A50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="3015" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="38400" yWindow="3015" windowWidth="28800" windowHeight="15435" xr2:uid="{6DB90D85-1B51-425A-BF9E-F1B146275295}"/>
+    <workbookView xWindow="38400" yWindow="2250" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -392,11 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2389" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2218" sqref="B2218:B2406"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="220" zoomScaleNormal="220" workbookViewId="1">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A361" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G364" sqref="G364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3147,7 +3143,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -3155,7 +3151,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -3163,7 +3159,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -3171,7 +3167,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -3179,7 +3175,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -3187,7 +3183,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -3195,7 +3191,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -3203,7 +3199,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -3211,7 +3207,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -3219,7 +3215,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -3227,7 +3223,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -3235,7 +3231,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -3243,7 +3239,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -3251,7 +3247,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -3259,7 +3255,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -3267,7 +3263,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -3275,7 +3271,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -3283,7 +3279,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -3291,7 +3287,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -3299,7 +3295,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -3307,7 +3303,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -3315,7 +3311,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -3323,7 +3319,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
